--- a/src/Data_Generation/smp_jeju_2022.xlsx
+++ b/src/Data_Generation/smp_jeju_2022.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc79233973caf6a0/1. CODE/IGDT-DRO-optimal-bidding-of-virtual-power-plant/src/Data_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{46C07777-FD55-4FEC-8DDE-8E2F772DF5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47920A76-BBD8-4B86-955B-A7276F21233C}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{46C07777-FD55-4FEC-8DDE-8E2F772DF5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13518664-3792-4B8B-BB9F-10F4F9225E8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="37920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smp_jeju_2022" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -737,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +752,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,6 +813,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB367"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="Z207" sqref="Z207:AA207"/>
+    <sheetView showGridLines="0" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="Z256" sqref="B256:Z256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32636,4 +32644,415 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC56BB9B-7E3A-4FBD-8A8C-45AC2F67A6B8}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:W25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>143.81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>143.51</v>
+      </c>
+      <c r="C1" s="2">
+        <v>132.1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>131.72999999999999</v>
+      </c>
+      <c r="E1" s="2">
+        <v>131.78</v>
+      </c>
+      <c r="F1" s="2">
+        <v>132.58000000000001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>153.46</v>
+      </c>
+      <c r="H1" s="2">
+        <v>153.46</v>
+      </c>
+      <c r="I1" s="2">
+        <v>143.91</v>
+      </c>
+      <c r="J1" s="2">
+        <v>142.55000000000001</v>
+      </c>
+      <c r="K1" s="2">
+        <v>129.53</v>
+      </c>
+      <c r="L1" s="2">
+        <v>129.53</v>
+      </c>
+      <c r="M1" s="2">
+        <v>143.34</v>
+      </c>
+      <c r="N1" s="2">
+        <v>143.88999999999999</v>
+      </c>
+      <c r="O1" s="2">
+        <v>144</v>
+      </c>
+      <c r="P1" s="2">
+        <v>148.6</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>225.94</v>
+      </c>
+      <c r="R1" s="2">
+        <v>244.91</v>
+      </c>
+      <c r="S1" s="2">
+        <v>244.92</v>
+      </c>
+      <c r="T1" s="2">
+        <v>244.98</v>
+      </c>
+      <c r="U1" s="2">
+        <v>244.92</v>
+      </c>
+      <c r="V1" s="2">
+        <v>244.92</v>
+      </c>
+      <c r="W1" s="2">
+        <v>244.92</v>
+      </c>
+      <c r="X1" s="2">
+        <v>166.64</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>129.53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f>A1*0.85</f>
+        <v>122.2385</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:Y2" si="0">B1*0.85</f>
+        <v>121.98349999999999</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" si="0"/>
+        <v>112.285</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>111.97049999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>112.01299999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>112.69300000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>130.441</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>130.441</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>122.3235</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>121.1675</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>110.1005</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>110.1005</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>121.839</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>122.30649999999999</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>126.30999999999999</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>192.04900000000001</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>208.17349999999999</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" si="0"/>
+        <v>208.18199999999999</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="0"/>
+        <v>208.23299999999998</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="0"/>
+        <v>208.18199999999999</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="0"/>
+        <v>208.18199999999999</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="0"/>
+        <v>208.18199999999999</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="0"/>
+        <v>141.64399999999998</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="0"/>
+        <v>110.1005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>40</v>
+      </c>
+      <c r="O23">
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
+        <v>50</v>
+      </c>
+      <c r="R23">
+        <v>70</v>
+      </c>
+      <c r="S23">
+        <v>70</v>
+      </c>
+      <c r="T23">
+        <v>70</v>
+      </c>
+      <c r="U23">
+        <v>50</v>
+      </c>
+      <c r="V23">
+        <v>50</v>
+      </c>
+      <c r="W23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>60</v>
+      </c>
+      <c r="L24">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <v>60</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
+        <v>35</v>
+      </c>
+      <c r="R24">
+        <v>30</v>
+      </c>
+      <c r="S24">
+        <v>30</v>
+      </c>
+      <c r="T24">
+        <v>30</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>42</v>
+      </c>
+      <c r="L25">
+        <v>48</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>53</v>
+      </c>
+      <c r="P25">
+        <v>62</v>
+      </c>
+      <c r="Q25">
+        <v>70</v>
+      </c>
+      <c r="R25">
+        <v>75</v>
+      </c>
+      <c r="S25">
+        <v>56</v>
+      </c>
+      <c r="T25">
+        <v>50</v>
+      </c>
+      <c r="U25">
+        <v>47</v>
+      </c>
+      <c r="V25">
+        <v>42</v>
+      </c>
+      <c r="W25">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>